--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c954a94c867a2a/デスクトップ/KOTA/STREAMLIT/10 ACTION TRACKER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{243FEBED-1C23-4A02-8866-B5061A6FDE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C915CED0-B551-44F8-BC07-949B2E0B82E0}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{243FEBED-1C23-4A02-8866-B5061A6FDE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE01F4AD-BBB3-411C-8329-6B4A082BD296}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CDC4A3E-3378-462B-A267-6E0DBC1C3204}"/>
   </bookViews>
@@ -35,24 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
-  <si>
-    <t>What</t>
-    <phoneticPr fontId="2"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Who</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>When</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>How</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -73,22 +61,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>POT% is not meeting 100%</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Nizam, Hakimi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Jan, 2022</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Consistency checking between payment term and actual invoice manually</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Korea</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -101,9 +77,6 @@
   </si>
   <si>
     <t>Complete</t>
-  </si>
-  <si>
-    <t>Complete</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -116,6 +89,69 @@
   </si>
   <si>
     <t>On Hold</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>What(Action Items)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>POT% is not meeting 100% even though we are on target(over 80%).</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nizam, Hakimi &amp; Hanis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Who(Responsible)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>When(Due date)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Consistency checking between payment term and actual invoice manually
+2. Identify the reason of deviated invoices whether it is due to system related only</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DAT(Duplicate Audit Tool)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Duplicate Audit Tool was deployed by global team, so we have to complete a validity check whethe it is applicable to us.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Nadzrin &amp; Syahmi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C &amp; B analysis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Julia</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Dec, 2021</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Held a knowledge sharing session internally among our team members
+2. Perform parallel run for 2 - 3 months (SAP T-code and DAT BI)
+3. Decide whether we implement new process or not based on our parallel run</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Finance Core knowledge base</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan team </t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -198,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,6 +246,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -531,108 +573,130 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="5" width="15.8984375" customWidth="1"/>
+    <col min="1" max="2" width="15.8984375" customWidth="1"/>
+    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.8984375" customWidth="1"/>
     <col min="6" max="6" width="66.3984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -641,7 +705,7 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -650,7 +714,7 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -659,7 +723,7 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -668,7 +732,7 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -677,7 +741,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -686,7 +750,7 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -695,7 +759,7 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -704,7 +768,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -713,7 +777,7 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -722,7 +786,7 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -731,7 +795,7 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -740,7 +804,7 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="C18" s="4"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -786,27 +850,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/12c954a94c867a2a/デスクトップ/KOTA/STREAMLIT/10 ACTION TRACKER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\usat-dfs\INTL\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{243FEBED-1C23-4A02-8866-B5061A6FDE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE01F4AD-BBB3-411C-8329-6B4A082BD296}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997381E-8953-4950-8354-BBC0EC5A71B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5CDC4A3E-3378-462B-A267-6E0DBC1C3204}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="1" r:id="rId1"/>
     <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$23</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
@@ -129,10 +123,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C &amp; B analysis</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Julia</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -141,29 +131,240 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. Held a knowledge sharing session internally among our team members
-2. Perform parallel run for 2 - 3 months (SAP T-code and DAT BI)
+    <t>Finance Core knowledge base</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan team </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>VoC project</t>
+  </si>
+  <si>
+    <t>Hakimi &amp; Hanis</t>
+  </si>
+  <si>
+    <t>Mar, 2022</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>POT Improvement</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>T&amp;E Compliant rate improvement</t>
+  </si>
+  <si>
+    <t>Syahmi &amp; Nadzrin</t>
+  </si>
+  <si>
+    <t>Knowledge base chatbot project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asano-san KT </t>
+  </si>
+  <si>
+    <t>Nizam KT</t>
+  </si>
+  <si>
+    <t>Dec, 2021</t>
+  </si>
+  <si>
+    <t>Nadzrin &amp; Hakimi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Travel policy </t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Local Addendum revision</t>
+  </si>
+  <si>
+    <t>Appzen Configuration setting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Have to discuss further with IT representative
+</t>
+  </si>
+  <si>
+    <t>1. Need discussion with Yamazaki-san and other party to solve user's question
+2. Send VoC survey after providing answers to users</t>
+  </si>
+  <si>
+    <t>C &amp; B analysis - Relocation fees process alignment</t>
+  </si>
+  <si>
+    <t>Jan, 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. To align with HR team and Payroll team on the process of transportation fares for family visitation </t>
+  </si>
+  <si>
+    <t>C &amp; B analysis - OT-related costs process alignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Issue has been aligned with GPO, KR local HR and KR CFO - DONE in Dec. 2021 
+</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Revised T&amp;E Thresholds Guide to users in KR12</t>
+  </si>
+  <si>
+    <t>1. Notification email with explanation on changes in amount thresholds to be sent out within Dec. 2021
+2. Live session on the changes to be conducted in 6 Jan. 2022</t>
+  </si>
+  <si>
+    <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021</t>
+  </si>
+  <si>
+    <t>1. Revision on Local Addendum based on the new thresholds and revised Global policy</t>
+  </si>
+  <si>
+    <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021
+2. Request the change to Appzen team and apply the new configuration</t>
+  </si>
+  <si>
+    <t>1. to remove any parts in the slides that state 'contact Concur helpdesk' -DONE on15 Dec. 2021</t>
+  </si>
+  <si>
+    <t>%POT is lower than other entities based on the following root causes
+- Based on vendor Payment methods set up as -J: Invoice baseline date is the invoice issued date instead of Invoice process date by EXELA
+- Payment cycle as 10th, 25th, and End of Month (3 times per Month)
+- Immediately payment term vendors are around 50%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Analyze the lower %POT of KR12 and prepared the Sensitivity Analysis file (May 2021)
+2. Organize the meeting with FRA Korea and TCM task owner in order to increase Payment cycle to improve %POT based on the Sensitivity Analysis (Nov 2021)
+3. Contact to Procurement team to change immediately payment term vendor and 17 vendors are selected by Procurement to change (Nov 2021)
+4. TCM will process payment run on 20th instead of 25th Jan to analyze %POT impact without the additional Payment cycle (Jan 2022) 
+5. After January %POT Analysis, if the additional Payment cycle is required, R2P will work with TCM task owner closely in order to prevent any service quality disruption (Feb 2022) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Revision on Local Addendum based on the new thresholds and revised Global policy </t>
+  </si>
+  <si>
+    <t>Since Asano san will be transferred to another department. All the task will be transfer to AGSKL team</t>
+  </si>
+  <si>
+    <t>1. KT consist of 2 part. ServiceNOW and Payment Task
+2. Current status: ServiceNOW = Complete; Payment Task = KT is in progress
+3. Will send the update to Maeda-san and Hakimi every Friday</t>
+  </si>
+  <si>
+    <t>Since Nizam is leaving leave Alcon. All the task will be transfer to Hakimi and Hanis</t>
+  </si>
+  <si>
+    <t>1. To expediate KT, KT is currently being held everyday. 
+2. KT is expected to be completed by end of this year.</t>
+  </si>
+  <si>
+    <t>1. Drafting all the related Tasks.</t>
+  </si>
+  <si>
+    <t>Update of Concur End User Training &amp; related materials on T&amp;E InSight Page</t>
+  </si>
+  <si>
+    <t>Action - Required team to update the excel for training material which required to be updates and provide updates by 21st Dec</t>
+  </si>
+  <si>
+    <t>Update of Concur Approver Training &amp; related materials on T&amp;E InSight Page</t>
+  </si>
+  <si>
+    <t>Action - Required team to update the excel for training material which required to be updates by 21st Dec</t>
+  </si>
+  <si>
+    <t>KPI for T&amp;E Compliance Rate are below 85%</t>
+  </si>
+  <si>
+    <t>Egencia Implementation</t>
+  </si>
+  <si>
+    <t>Replacement of CWT Travel to Egencia</t>
+  </si>
+  <si>
+    <t>April, 2022</t>
+  </si>
+  <si>
+    <t>1. Go through FAQ Egencia and T&amp;E related document
+2. Held a meeting discussion to enhance understanding on Japan Credit Card Process Flow
+3. Create a simple 1 PPT slide on comparison of Japan Travel Booking Process via CWT/Egencia
+4. Going through all T&amp;E Related documents for any updates and amendment</t>
+  </si>
+  <si>
+    <t>1. Held a knowledge sharing session internally among our team members (Dec 2021)
+2. Perform parallel run for 2 - 3 months (SAP T-code and DAT BI) (in progress)
 3. Decide whether we implement new process or not based on our parallel run</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Finance Core knowledge base</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan team </t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. Design a separate Rejection Analysis to identify main contributor of rejection in Concur (Jun 2021)
+2. Build an action plan to achieve KPI target of 85% Compliance rate before end of 2021. (Nov 2021)
+3. Create a Newsletter to touch on monthly Top 3 Rejection reason and any other important notification for all Japan Business User (Dec 2021)
+4. Create other separate email notification to targeted users regarding specific rejection reason in order to increase effectiveness as a follow up action. (Dec 2021)
+5. Conduct a direct session in Jan 2022 with users who committed the rejection reason repeatedly since Aug 2021 (in progress)</t>
+  </si>
+  <si>
+    <t>Downpayment Case Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syahmi  </t>
+  </si>
+  <si>
+    <t>To update manual on several special case for downpayment occured througout year 2021</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>To update SOP for yearly task donation which is incompletely transfered from Iida-san in March 2021</t>
+  </si>
+  <si>
+    <t>The task is performed rarely once in year end and new year, thus need to have a clear manual for future new joiner</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Since Nizam is leaving and Hanis is still new, I have to pro actively be ready for payment backup with Hakimi</t>
+  </si>
+  <si>
+    <t>Feb, 2022</t>
+  </si>
+  <si>
+    <t>To go through payment KT by Nizam with Hanis for payment task to refresh on the opration flow.</t>
+  </si>
+  <si>
+    <t>Query submission mode change to FNOW guidance to all users in KR</t>
+  </si>
+  <si>
+    <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - by end of Dec. 2021
+2. Giving consistent guide of the change to users via email and messages whenever contacted -end of Jan. 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -171,14 +372,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -186,7 +387,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -234,7 +435,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -247,16 +448,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -272,7 +470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -567,26 +765,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{447C8F81-A228-4C54-8A54-7E4569E1B590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="2" width="15.8984375" customWidth="1"/>
-    <col min="3" max="3" width="24.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.8984375" customWidth="1"/>
-    <col min="6" max="6" width="66.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="70.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -609,7 +808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="43.5">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -625,14 +824,14 @@
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="72.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -648,227 +847,574 @@
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
+      <c r="F3" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="29">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="29">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.5">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="87">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="217.5">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="159.5">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="29">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="72.5">
+      <c r="A13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="58">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="29">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="29">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29">
+      <c r="A18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="3"/>
+      <c r="D18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="43.5">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="43.5">
+      <c r="A20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="29">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="29">
+      <c r="A22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="29">
+      <c r="A23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="39" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="35.5" customHeight="1">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="58">
+      <c r="A27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0EDE76EF-23BB-495B-B419-A802A5A7AB9B}">
-          <x14:formula1>
-            <xm:f>status!$A$1:$A$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>G2:G19</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6905B5-33D5-43C3-B48D-CCA618D47249}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -876,5 +1422,10 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
+  </customProperties>
 </worksheet>
 </file>
--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\usat-dfs\INTL\MYPB\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3997381E-8953-4950-8354-BBC0EC5A71B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C39AA-6D44-42E2-AA4F-6C29E088F62B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,10 +19,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$23</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,23 +95,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>What(Action Items)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>POT% is not meeting 100% even though we are on target(over 80%).</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Nizam, Hakimi &amp; Hanis</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Who(Responsible)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>When(Due date)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -194,14 +191,6 @@
   </si>
   <si>
     <t>Appzen Configuration setting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Have to discuss further with IT representative
-</t>
-  </si>
-  <si>
-    <t>1. Need discussion with Yamazaki-san and other party to solve user's question
-2. Send VoC survey after providing answers to users</t>
   </si>
   <si>
     <t>C &amp; B analysis - Relocation fees process alignment</t>
@@ -354,6 +343,23 @@
   <si>
     <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - by end of Dec. 2021
 2. Giving consistent guide of the change to users via email and messages whenever contacted -end of Jan. 2022</t>
+  </si>
+  <si>
+    <t>1. Need discussion with Yamazaki-san and other party to solve user's question by end of December
+2. Send one VoC survey after providing answers to users by end of January 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Have to discuss further with IT representative by mid of January
+</t>
+  </si>
+  <si>
+    <t>What_Action_Items</t>
+  </si>
+  <si>
+    <t>Who_Responsible</t>
+  </si>
+  <si>
+    <t>When_Due_date</t>
   </si>
 </sst>
 </file>
@@ -772,7 +778,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -790,16 +796,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -816,16 +822,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -836,19 +842,19 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -859,17 +865,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -880,20 +886,20 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="43.5">
@@ -901,17 +907,17 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -922,38 +928,38 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="43.5">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -961,22 +967,22 @@
     </row>
     <row r="9" spans="1:7" ht="87">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -984,22 +990,22 @@
     </row>
     <row r="10" spans="1:7" ht="217.5">
       <c r="A10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -1007,22 +1013,22 @@
     </row>
     <row r="11" spans="1:7" ht="159.5">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -1030,20 +1036,20 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1051,22 +1057,22 @@
     </row>
     <row r="13" spans="1:7" ht="72.5">
       <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -1074,22 +1080,22 @@
     </row>
     <row r="14" spans="1:7" ht="58">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1097,20 +1103,20 @@
     </row>
     <row r="15" spans="1:7" ht="29">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1118,20 +1124,20 @@
     </row>
     <row r="16" spans="1:7" ht="29">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -1139,20 +1145,20 @@
     </row>
     <row r="17" spans="1:7" ht="29">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -1160,20 +1166,20 @@
     </row>
     <row r="18" spans="1:7" ht="29">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -1181,20 +1187,20 @@
     </row>
     <row r="19" spans="1:7" ht="43.5">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
@@ -1202,20 +1208,20 @@
     </row>
     <row r="20" spans="1:7" ht="43.5">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -1223,41 +1229,41 @@
     </row>
     <row r="21" spans="1:7" ht="29">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="29">
       <c r="A22" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1265,20 +1271,20 @@
     </row>
     <row r="23" spans="1:7" ht="29">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -1286,20 +1292,20 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1307,22 +1313,22 @@
     </row>
     <row r="25" spans="1:7" ht="39" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1330,22 +1336,22 @@
     </row>
     <row r="26" spans="1:7" ht="35.5" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1353,20 +1359,20 @@
     </row>
     <row r="27" spans="1:7" ht="58">
       <c r="A27" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>

--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\UPLOAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2C39AA-6D44-42E2-AA4F-6C29E088F62B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C927D832-5BDF-450A-B10F-7C0A56ABC33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
@@ -213,10 +213,6 @@
   </si>
   <si>
     <t>Revised T&amp;E Thresholds Guide to users in KR12</t>
-  </si>
-  <si>
-    <t>1. Notification email with explanation on changes in amount thresholds to be sent out within Dec. 2021
-2. Live session on the changes to be conducted in 6 Jan. 2022</t>
   </si>
   <si>
     <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021</t>
@@ -259,10 +255,6 @@
     <t>Since Nizam is leaving leave Alcon. All the task will be transfer to Hakimi and Hanis</t>
   </si>
   <si>
-    <t>1. To expediate KT, KT is currently being held everyday. 
-2. KT is expected to be completed by end of this year.</t>
-  </si>
-  <si>
     <t>1. Drafting all the related Tasks.</t>
   </si>
   <si>
@@ -341,25 +333,49 @@
     <t>Query submission mode change to FNOW guidance to all users in KR</t>
   </si>
   <si>
-    <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - by end of Dec. 2021
+    <t>What_Action_Items</t>
+  </si>
+  <si>
+    <t>Who_Responsible</t>
+  </si>
+  <si>
+    <t>When_Due_date</t>
+  </si>
+  <si>
+    <t>1. Ticket raised, waiting reply from IT team on customer's issue: VIM approval history. 
+2. Translating survey and preparing survey for customers by 2nd week of January 2022
+3.. Send one VoC survey after providing answers to users by end of January 2022
+4. To understand Yamasaki's task to prevent invoices from being neglected by end of December</t>
+  </si>
+  <si>
+    <t>VIM Insight Page-FNOW Link Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some users use wrong link to access SNOW. Instead of SNOW prod, they went to SNOW stage </t>
+  </si>
+  <si>
+    <t>Hakimi</t>
+  </si>
+  <si>
+    <t>1. To check and provide correct links for SNOW in the insight page (Jan 1st week)
+2. To check FNOW template link (Jan 1st week)</t>
+  </si>
+  <si>
+    <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - DONE 17 Dec.2021
 2. Giving consistent guide of the change to users via email and messages whenever contacted -end of Jan. 2022</t>
   </si>
   <si>
-    <t>1. Need discussion with Yamazaki-san and other party to solve user's question by end of December
-2. Send one VoC survey after providing answers to users by end of January 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Have to discuss further with IT representative by mid of January
+    <t>1. Notification email with explanation on changes in amount thresholds to be sent out within Dec. 2021-DONE 17 Dec. 2021
+2. Live session on the changes to be conducted in 6 Jan. 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Target at collecting 1,000 Knowledge idea as a team
+2. Have to discuss further with IT representative by mid of January
 </t>
   </si>
   <si>
-    <t>What_Action_Items</t>
-  </si>
-  <si>
-    <t>Who_Responsible</t>
-  </si>
-  <si>
-    <t>When_Due_date</t>
+    <t>1. To expediate KT, KT is currently being held everyday. 
+2. KT is expected to be completed by end of Feb, 2022.</t>
   </si>
 </sst>
 </file>
@@ -441,7 +457,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -456,6 +472,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,17 +800,17 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="5" width="15.90625" customWidth="1"/>
     <col min="6" max="6" width="70.81640625" customWidth="1"/>
     <col min="7" max="7" width="15.90625" customWidth="1"/>
@@ -796,16 +821,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -854,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -917,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -938,13 +963,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="43.5">
+    <row r="8" spans="1:7" ht="101.5">
       <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
@@ -970,19 +995,19 @@
         <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -996,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -1005,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -1019,7 +1044,7 @@
         <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>32</v>
@@ -1028,13 +1053,13 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="29">
+    <row r="12" spans="1:7" ht="43.5">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1049,7 +1074,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1063,7 +1088,7 @@
         <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>34</v>
@@ -1072,7 +1097,7 @@
         <v>27</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -1086,7 +1111,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -1095,7 +1120,7 @@
         <v>37</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1116,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1137,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
@@ -1158,7 +1183,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -1179,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
@@ -1200,7 +1225,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
@@ -1221,7 +1246,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>8</v>
@@ -1232,7 +1257,7 @@
         <v>28</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
@@ -1242,7 +1267,7 @@
         <v>37</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>48</v>
@@ -1253,7 +1278,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
@@ -1263,7 +1288,7 @@
         <v>37</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
@@ -1274,7 +1299,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
@@ -1284,7 +1309,7 @@
         <v>37</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
@@ -1295,17 +1320,17 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
@@ -1316,19 +1341,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1339,19 +1364,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1362,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
@@ -1372,14 +1397,46 @@
         <v>44</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="28" spans="1:7" ht="58">
+      <c r="A28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1431,7 +1488,6 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\UPLOAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C927D832-5BDF-450A-B10F-7C0A56ABC33B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91C6334-58AD-47AD-BEA9-9532B3986527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,28 +17,19 @@
     <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$33</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
@@ -103,11 +94,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. Consistency checking between payment term and actual invoice manually
-2. Identify the reason of deviated invoices whether it is due to system related only</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DAT(Duplicate Audit Tool)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -197,9 +183,6 @@
   </si>
   <si>
     <t>Jan, 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. To align with HR team and Payroll team on the process of transportation fares for family visitation </t>
   </si>
   <si>
     <t>C &amp; B analysis - OT-related costs process alignment</t>
@@ -216,9 +199,6 @@
   </si>
   <si>
     <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021</t>
-  </si>
-  <si>
-    <t>1. Revision on Local Addendum based on the new thresholds and revised Global policy</t>
   </si>
   <si>
     <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021
@@ -241,9 +221,6 @@
 5. After January %POT Analysis, if the additional Payment cycle is required, R2P will work with TCM task owner closely in order to prevent any service quality disruption (Feb 2022) </t>
   </si>
   <si>
-    <t xml:space="preserve">1. Revision on Local Addendum based on the new thresholds and revised Global policy </t>
-  </si>
-  <si>
     <t>Since Asano san will be transferred to another department. All the task will be transfer to AGSKL team</t>
   </si>
   <si>
@@ -255,6 +232,10 @@
     <t>Since Nizam is leaving leave Alcon. All the task will be transfer to Hakimi and Hanis</t>
   </si>
   <si>
+    <t>1. To expediate KT, KT is currently being held everyday. 
+2. KT is expected to be completed by end of this year.</t>
+  </si>
+  <si>
     <t>1. Drafting all the related Tasks.</t>
   </si>
   <si>
@@ -262,12 +243,6 @@
   </si>
   <si>
     <t>Action - Required team to update the excel for training material which required to be updates and provide updates by 21st Dec</t>
-  </si>
-  <si>
-    <t>Update of Concur Approver Training &amp; related materials on T&amp;E InSight Page</t>
-  </si>
-  <si>
-    <t>Action - Required team to update the excel for training material which required to be updates by 21st Dec</t>
   </si>
   <si>
     <t>KPI for T&amp;E Compliance Rate are below 85%</t>
@@ -293,28 +268,15 @@
 3. Decide whether we implement new process or not based on our parallel run</t>
   </si>
   <si>
-    <t>1. Design a separate Rejection Analysis to identify main contributor of rejection in Concur (Jun 2021)
-2. Build an action plan to achieve KPI target of 85% Compliance rate before end of 2021. (Nov 2021)
-3. Create a Newsletter to touch on monthly Top 3 Rejection reason and any other important notification for all Japan Business User (Dec 2021)
-4. Create other separate email notification to targeted users regarding specific rejection reason in order to increase effectiveness as a follow up action. (Dec 2021)
-5. Conduct a direct session in Jan 2022 with users who committed the rejection reason repeatedly since Aug 2021 (in progress)</t>
-  </si>
-  <si>
     <t>Downpayment Case Study</t>
   </si>
   <si>
     <t xml:space="preserve">Syahmi  </t>
   </si>
   <si>
-    <t>To update manual on several special case for downpayment occured througout year 2021</t>
-  </si>
-  <si>
     <t>Donation</t>
   </si>
   <si>
-    <t>To update SOP for yearly task donation which is incompletely transfered from Iida-san in March 2021</t>
-  </si>
-  <si>
     <t>The task is performed rarely once in year end and new year, thus need to have a clear manual for future new joiner</t>
   </si>
   <si>
@@ -327,12 +289,13 @@
     <t>Feb, 2022</t>
   </si>
   <si>
-    <t>To go through payment KT by Nizam with Hanis for payment task to refresh on the opration flow.</t>
-  </si>
-  <si>
     <t>Query submission mode change to FNOW guidance to all users in KR</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Have to discuss further with IT representative by mid of January
+</t>
+  </si>
+  <si>
     <t>What_Action_Items</t>
   </si>
   <si>
@@ -342,40 +305,158 @@
     <t>When_Due_date</t>
   </si>
   <si>
-    <t>1. Ticket raised, waiting reply from IT team on customer's issue: VIM approval history. 
+    <t>VIM Insight Page-FNOW Link Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some users use wrong link to access SNOW. Instead of SNOW prod, they went to SNOW stage </t>
+  </si>
+  <si>
+    <t>Hakimi</t>
+  </si>
+  <si>
+    <t>1. To check and provide correct links for SNOW in the insight page (Jan 1st week)
+2. To check FNOW template link (Jan 1st week)</t>
+  </si>
+  <si>
+    <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - DONE 17 Dec.2021
+2. Giving consistent guide of the change to users via email and messages whenever contacted -end of Jan. 2022</t>
+  </si>
+  <si>
+    <t>1. Notification email with explanation on changes in amount thresholds to be sent out within Dec. 2021-DONE 17 Dec. 2021
+2. Live session on the changes to be conducted in 6 Jan. 2022</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>1. To check year end closing calendar updated by Syahmi and identify critical items along with due dates (Dec 22, 2021)
+2. Arrange the quick session to explain year end closing calenders along with action items (Dec 23, 2021)</t>
+  </si>
+  <si>
+    <t>Global and Japan WD calendar is not aligned for the year end closing.</t>
+  </si>
+  <si>
+    <t>2022 Payment calendar</t>
+  </si>
+  <si>
+    <t>Payment calendar has not yet been created before, so the approvers have to handle payment approveal on ad-hoc basis.</t>
+  </si>
+  <si>
+    <t>1. To check 2022 payment calendar updated by Nizam and identify if there is any discrepancy between payment run date and our assumption (Dec 22, 2021)
+2. Arrange the quick session to explain 2022 payment calendar (Dec 23, 2021)</t>
+  </si>
+  <si>
+    <t>KPI T&amp;E update</t>
+  </si>
+  <si>
+    <t>T&amp;E dashboard has been updated in global tableau platform, but it takes some time to take a snapshot of each KPI graph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Build a python programming utilizing scraping technique to automatically scrape the dashboard (Dec 23, 2021)
+2. Automate copy and paste process of screenshots into deck (Dec 23, 2021) </t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>1. IT team reverted to FRA team. Discuss with Nicholas, Nicholas to deliver feedback
 2. Translating survey and preparing survey for customers by 2nd week of January 2022
 3.. Send one VoC survey after providing answers to users by end of January 2022
 4. To understand Yamasaki's task to prevent invoices from being neglected by end of December</t>
   </si>
   <si>
-    <t>VIM Insight Page-FNOW Link Update</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some users use wrong link to access SNOW. Instead of SNOW prod, they went to SNOW stage </t>
-  </si>
-  <si>
-    <t>Hakimi</t>
-  </si>
-  <si>
-    <t>1. To check and provide correct links for SNOW in the insight page (Jan 1st week)
-2. To check FNOW template link (Jan 1st week)</t>
-  </si>
-  <si>
-    <t>1. Informing all users of Korea of the new method of query submission via email with translated how-to guide - DONE 17 Dec.2021
-2. Giving consistent guide of the change to users via email and messages whenever contacted -end of Jan. 2022</t>
-  </si>
-  <si>
-    <t>1. Notification email with explanation on changes in amount thresholds to be sent out within Dec. 2021-DONE 17 Dec. 2021
-2. Live session on the changes to be conducted in 6 Jan. 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Target at collecting 1,000 Knowledge idea as a team
-2. Have to discuss further with IT representative by mid of January
+    <t>FNOW Breached Ticket Analysis</t>
+  </si>
+  <si>
+    <t>1. To provide simple workflow for breached ticket analysis  Feb 25, 2021)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. To align with HR team and Payroll team on the process of transportation fares for family visitation - to arrange a meeting in Jan. </t>
+  </si>
+  <si>
+    <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021- to be completed by 23 Dec. 2021</t>
+  </si>
+  <si>
+    <t>1. Revision on Local Addendum based on the new thresholds and revised Global policy - to be completed by 23 Dec. 2021</t>
+  </si>
+  <si>
+    <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021-DONE on 21 Dec. 2021
+2. Request the change to Appzen team and apply the new configuration - by end of Dec. 2021</t>
+  </si>
+  <si>
+    <t>To update manual on several special case for downpayment occured througout year 2021 (In progress)</t>
+  </si>
+  <si>
+    <t>Dec, 2022</t>
+  </si>
+  <si>
+    <t>1. To update SOP for yearly task donation which is incompletely transfered from Iida-san in March 2021 (end of Dec)</t>
+  </si>
+  <si>
+    <t>1. To go through payment KT by Nizam with Hanis for payment task to refresh on the opration flow (end of Dec)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicate Audit Tools </t>
+  </si>
+  <si>
+    <t>Syahmi and Nadzrin</t>
+  </si>
+  <si>
+    <t>1. Knowledge sharing on new DAT with team</t>
+  </si>
+  <si>
+    <t>Automated Posting : T&amp;E accrual Global Enhancement</t>
+  </si>
+  <si>
+    <t>The system to go live on Jannuary 2022</t>
+  </si>
+  <si>
+    <t>1. Knowledge sharing on new project of Automated Posting : T&amp;E accrual Global Enhancement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As an alternative way to double confirm current practice / to replace current practice which consume much time </t>
+  </si>
+  <si>
+    <t>1. Revision on Local Addendum based on the new thresholds and revised Global policy by 24 Dec 2021</t>
+  </si>
+  <si>
+    <t>1. Design a separate Rejection Analysis to identify main contributor of rejection in Concur (Done on Jun 2021)
+2. Build an action plan to achieve KPI target of 85% Compliance rate before end of 2021. (Done on Nov 2021)
+3. Create a Newsletter to touch on monthly Top 3 Rejection reason and any other important notification for all Japan Business User (Done on Dec 2021)
+4. Create other separate email notification to targeted users regarding specific rejection reason in order to increase effectiveness as a follow up action. (Done on Dec 2021)
+5. Conduct a direct session in Jan 2022 with users who committed the rejection reason repeatedly since Aug 2021 (invitation will be sent by 14 Jan 2021, session by 21 Jan 2021)</t>
+  </si>
+  <si>
+    <t>Year End Schedule update</t>
+  </si>
+  <si>
+    <t>Hiring status</t>
+  </si>
+  <si>
+    <t>Replecement of Aiqi and Nizam</t>
+  </si>
+  <si>
+    <t>Sharil (replacement of Aiqi) will be joining us on Feb3, 2022. He will be signing our job offer letter.
+Nurulain(replacement of Nizam) will be joining us on Jan 4th, 2022. Job offer letter will be signed off by her after HR manager e-signs it.</t>
+  </si>
+  <si>
+    <t>Paperless Project</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to Law Concerning Preservation of National Tax Records in Electronic Form, Concur process change will be required. </t>
+  </si>
+  <si>
+    <t>1. Consistency checking between payment term and actual invoice manually (Dec 31, 2021)
+2. Identify the reason of deviated invoices whether it is due to system related only (Jan 14, 2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Appzen current configuration setting revisit Jan 7, 2022
+2. Public transporation configuration as a reference point Jan 7, 2022
+3. Feasibility study whether Appzen can flag it as medium or low risk if the users attach only credit card statement
 </t>
-  </si>
-  <si>
-    <t>1. To expediate KT, KT is currently being held everyday. 
-2. KT is expected to be completed by end of Feb, 2022.</t>
   </si>
 </sst>
 </file>
@@ -429,7 +510,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -448,6 +529,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -457,7 +556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -473,14 +572,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -800,19 +917,20 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="43.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="5" width="15.90625" customWidth="1"/>
-    <col min="6" max="6" width="70.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="114" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -821,16 +939,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -839,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5">
+    <row r="2" spans="1:7" ht="58">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -856,51 +974,51 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72.5">
+    <row r="3" spans="1:7" ht="159.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="29">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -911,38 +1029,38 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="29">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -953,174 +1071,174 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="101.5">
+    <row r="8" spans="1:7" ht="58">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="58">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.5">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="87">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="217.5">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="116">
+      <c r="A11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="159.5">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="43.5">
+    <row r="12" spans="1:7" ht="29">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72.5">
+    <row r="13" spans="1:7" ht="130.5">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="116">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="58">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1128,315 +1246,583 @@
     </row>
     <row r="15" spans="1:7" ht="29">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="29">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="29">
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="29">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="43.5">
+    <row r="19" spans="1:8" ht="29">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="43.5">
+    <row r="20" spans="1:8" ht="29">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="29">
+      <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="29">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="29">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="29">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>63</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>64</v>
+        <v>36</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8" ht="39" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="35.5" customHeight="1">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29">
+      <c r="A26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="116">
+      <c r="A27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="87">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="159.5">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="174">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="39" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="35.5" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="58">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="5"/>
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="188.5">
+      <c r="A32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="58">
+      <c r="A33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="43.5">
+      <c r="A34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="130.5">
+      <c r="A35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1444,6 +1830,18 @@
     <customPr name="_pios_id" r:id="rId2"/>
     <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>status!$A$1:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G48</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1488,6 +1886,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="EpmWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAEDAKO1\OneDrive - Alcon\DESKTOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91C6334-58AD-47AD-BEA9-9532B3986527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA4A4B-2C2C-4A24-84ED-323E8F71AA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
@@ -453,9 +453,12 @@
 2. Identify the reason of deviated invoices whether it is due to system related only (Jan 14, 2022)</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Appzen current configuration setting revisit Jan 7, 2022
-2. Public transporation configuration as a reference point Jan 7, 2022
-3. Feasibility study whether Appzen can flag it as medium or low risk if the users attach only credit card statement
+    <t>Overdue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Appzen current configuration setting revisit (Jan 7, 2022)
+2. Public transporation configuration as a reference point (Jan 7, 2022)
+3. Feasibility study whether Appzen can flag it as medium or low risk if the users attach only credit card statement (Jan 7, 2022)
 </t>
   </si>
 </sst>
@@ -919,8 +922,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -980,7 +983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="159.5">
+    <row r="3" spans="1:7" ht="101.5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1131,7 +1134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="409.5">
+    <row r="10" spans="1:7" ht="290">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="130.5">
+    <row r="13" spans="1:7" ht="87">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -1221,7 +1224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="116">
+    <row r="14" spans="1:7" ht="72.5">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="116">
+    <row r="27" spans="1:8" ht="87">
       <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="87">
+    <row r="28" spans="1:8" ht="58">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -1543,10 +1546,10 @@
         <v>85</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="159.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="101.5">
       <c r="A29" s="2" t="s">
         <v>23</v>
       </c>
@@ -1566,10 +1569,10 @@
         <v>89</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="174">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="101.5">
       <c r="A30" s="10" t="s">
         <v>23</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>92</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1612,7 +1615,7 @@
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:8" ht="188.5">
+    <row r="32" spans="1:8" ht="101.5">
       <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
@@ -1635,7 +1638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="58">
+    <row r="33" spans="1:7" ht="43.5">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>43</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>119</v>

--- a/KPI_ACTION_TRACKER.xlsx
+++ b/KPI_ACTION_TRACKER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAEDAKO1\OneDrive - Alcon\DESKTOP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Alcon.net\MYPB-DFS\DATA\AL\BusUnits\Alcon GSC FRA Ops\01 R2P\00. R2P General\JPN &amp; KOR\01 TEAM_BUILDING\01 TEAM MEETING\DAILY HUDDLE MEETING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DA4A4B-2C2C-4A24-84ED-323E8F71AA99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9F308A-420B-4608-9A43-B1D1763D584A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="status" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">KPI!$A$1:$G$35</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="122">
   <si>
     <t>Why</t>
     <phoneticPr fontId="2"/>
@@ -115,10 +115,6 @@
   </si>
   <si>
     <t>Finance Core knowledge base</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan team </t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -199,10 +195,6 @@
   </si>
   <si>
     <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021</t>
-  </si>
-  <si>
-    <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021
-2. Request the change to Appzen team and apply the new configuration</t>
   </si>
   <si>
     <t>1. to remove any parts in the slides that state 'contact Concur helpdesk' -DONE on15 Dec. 2021</t>
@@ -352,19 +344,9 @@
     <t>T&amp;E dashboard has been updated in global tableau platform, but it takes some time to take a snapshot of each KPI graph</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Build a python programming utilizing scraping technique to automatically scrape the dashboard (Dec 23, 2021)
-2. Automate copy and paste process of screenshots into deck (Dec 23, 2021) </t>
-  </si>
-  <si>
     <t>On Hold</t>
   </si>
   <si>
-    <t>1. IT team reverted to FRA team. Discuss with Nicholas, Nicholas to deliver feedback
-2. Translating survey and preparing survey for customers by 2nd week of January 2022
-3.. Send one VoC survey after providing answers to users by end of January 2022
-4. To understand Yamasaki's task to prevent invoices from being neglected by end of December</t>
-  </si>
-  <si>
     <t>FNOW Breached Ticket Analysis</t>
   </si>
   <si>
@@ -374,26 +356,7 @@
     <t xml:space="preserve">1. To align with HR team and Payroll team on the process of transportation fares for family visitation - to arrange a meeting in Jan. </t>
   </si>
   <si>
-    <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021- to be completed by 23 Dec. 2021</t>
-  </si>
-  <si>
     <t>1. Revision on Local Addendum based on the new thresholds and revised Global policy - to be completed by 23 Dec. 2021</t>
-  </si>
-  <si>
-    <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021-DONE on 21 Dec. 2021
-2. Request the change to Appzen team and apply the new configuration - by end of Dec. 2021</t>
-  </si>
-  <si>
-    <t>To update manual on several special case for downpayment occured througout year 2021 (In progress)</t>
-  </si>
-  <si>
-    <t>Dec, 2022</t>
-  </si>
-  <si>
-    <t>1. To update SOP for yearly task donation which is incompletely transfered from Iida-san in March 2021 (end of Dec)</t>
-  </si>
-  <si>
-    <t>1. To go through payment KT by Nizam with Hanis for payment task to refresh on the opration flow (end of Dec)</t>
   </si>
   <si>
     <t xml:space="preserve">Duplicate Audit Tools </t>
@@ -443,14 +406,7 @@
     <t>Paperless Project</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t xml:space="preserve">Due to Law Concerning Preservation of National Tax Records in Electronic Form, Concur process change will be required. </t>
-  </si>
-  <si>
-    <t>1. Consistency checking between payment term and actual invoice manually (Dec 31, 2021)
-2. Identify the reason of deviated invoices whether it is due to system related only (Jan 14, 2022)</t>
   </si>
   <si>
     <t>Overdue</t>
@@ -460,6 +416,43 @@
 2. Public transporation configuration as a reference point (Jan 7, 2022)
 3. Feasibility study whether Appzen can flag it as medium or low risk if the users attach only credit card statement (Jan 7, 2022)
 </t>
+  </si>
+  <si>
+    <t>1. Meeting with other APAC Conutries to standardize the Appzen Configuration Setting for Gift expense type</t>
+  </si>
+  <si>
+    <t>To update manual on several special case for downpayment occured througout year 2021 (27th Dec)</t>
+  </si>
+  <si>
+    <t>1. To update SOP for yearly task donation which is incompletely transfered from Iida-san in March 2021 (in progress)</t>
+  </si>
+  <si>
+    <t>1. To go through payment KT by Nizam with Hanis for payment task to refresh on the operation flow 
+Update 3rd Jan : KT is halfway done due to limited time to join the session in the hustle of year end closing. Will continue with Hakimi</t>
+  </si>
+  <si>
+    <t>1. Meeting with GPO on confirmation of congifuration setting chage within Dec. 2021-DONE on 21 Dec. 2021
+2. Request the change to Appzen team and apply the new configuration - by end of Dec. 2021-DONE on 6 Jan. 2022</t>
+  </si>
+  <si>
+    <t>1. Translation to be completed upon receiving access to the confidential document form Global team within Dec. 2021- to be completed by 23 Dec. 202-DONE (awaiting any further instruction from Global team)</t>
+  </si>
+  <si>
+    <t>1.  Contacted user again for VIM page problem. It is confirmed that approval history on VIM page can only show up to 10 items. If user want to view other items, hey may specify the dates. Thus, no action needed as this is system limitation. 
+2. Translating survey and preparing survey for customers by 2nd week of January 2022
+3.. Send one VoC survey after providing answers to users by end of January 2022
+4. Set Outlook email to no reading the email automatically to prevent overlooked email from Yamazaki's side - done</t>
+  </si>
+  <si>
+    <t>1. Consistency checking between payment term and actual invoice manually (Dec 31, 2021)
+2. Identify the reason of deviated invoices whether it is due to system related only (Jan 14, 2022) - currently editing Power point file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Build a python programming utilizing scraping technique to automatically scrape the dashboard (Jan 14, 2021)
+2. Automate copy and paste process of screenshots into deck (Jan 14, 2021) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kota &amp; Japan team </t>
   </si>
 </sst>
 </file>
@@ -922,8 +915,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -942,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -977,7 +970,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>8</v>
@@ -1000,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>8</v>
@@ -1011,17 +1004,17 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>8</v>
@@ -1032,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
@@ -1042,10 +1035,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="29">
@@ -1053,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="2" t="s">
@@ -1063,7 +1056,7 @@
         <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>8</v>
@@ -1078,34 +1071,34 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="58">
+    <row r="8" spans="1:7" ht="72.5">
       <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>8</v>
@@ -1113,22 +1106,22 @@
     </row>
     <row r="9" spans="1:7" ht="58">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
@@ -1136,22 +1129,22 @@
     </row>
     <row r="10" spans="1:7" ht="290">
       <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>8</v>
@@ -1159,22 +1152,22 @@
     </row>
     <row r="11" spans="1:7" ht="116">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>8</v>
@@ -1182,20 +1175,20 @@
     </row>
     <row r="12" spans="1:7" ht="29">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1203,22 +1196,22 @@
     </row>
     <row r="13" spans="1:7" ht="87">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>8</v>
@@ -1226,22 +1219,22 @@
     </row>
     <row r="14" spans="1:7" ht="72.5">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1249,20 +1242,20 @@
     </row>
     <row r="15" spans="1:7" ht="29">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>8</v>
@@ -1270,10 +1263,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
@@ -1283,28 +1276,28 @@
         <v>6</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>8</v>
@@ -1312,10 +1305,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="2" t="s">
@@ -1325,158 +1318,158 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="29">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="29">
       <c r="A22" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="35.5" customHeight="1">
+    <row r="25" spans="1:8" ht="92.5" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>104</v>
+        <v>42</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>8</v>
@@ -1484,20 +1477,20 @@
     </row>
     <row r="26" spans="1:8" ht="29">
       <c r="A26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>8</v>
@@ -1505,180 +1498,182 @@
     </row>
     <row r="27" spans="1:8" ht="87">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="E27" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="58">
       <c r="A28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="101.5">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="101.5">
       <c r="A30" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8" ht="101.5">
       <c r="A32" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="43.5">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="43.5">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>8</v>
@@ -1686,25 +1681,25 @@
     </row>
     <row r="35" spans="1:7" ht="130.5">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1825,7 +1820,7 @@
       <c r="G48" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G33" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G35" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
